--- a/러시안룰렛.xlsx
+++ b/러시안룰렛.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
@@ -409,7 +409,7 @@
         </is>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -441,12 +441,20 @@
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="n"/>
-      <c r="B5" s="0" t="n"/>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
           <t>장전된 약실 번호</t>
@@ -465,7 +473,7 @@
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
